--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T08:17:45+00:00</t>
+    <t>2025-10-21T12:05:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T12:05:40+00:00</t>
+    <t>2025-10-22T08:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T08:03:07+00:00</t>
+    <t>2025-10-22T10:16:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
+++ b/379-rc---gestion-des-identifiants-métiers/ig/StructureDefinition-tddui-event-cancel-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T10:16:49+00:00</t>
+    <t>2025-10-23T08:56:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
